--- a/data/memberOnlineEngagement.xlsx
+++ b/data/memberOnlineEngagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="24" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -24,23 +24,33 @@
     <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
     <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
     <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
-    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId21"/>
-    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId22"/>
-    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
-    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
-    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
-    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
-    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId21"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId22"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId23"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId24"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId25"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId26"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId27"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId28"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId29"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId30"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
+    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId38"/>
+    <sheet sheetId="36" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="54">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -150,6 +160,15 @@
     <t>SAINSBURY'S PENSION SCHEME AVC</t>
   </si>
   <si>
+    <t xml:space="preserve">Online registered with email is (in percentage)- </t>
+  </si>
+  <si>
+    <t>Average Female registered are (in percentage)-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Male registered are (in percentage) - </t>
+  </si>
+  <si>
     <t>ARGOS PERSONAL PENSION PLAN</t>
   </si>
   <si>
@@ -191,12 +210,15 @@
   <si>
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -217,6 +239,12 @@
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,11 +424,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3062,12 +3121,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
+    <col min="1" max="1" width="41.3125" customWidth="1"/>
     <col min="2" max="3" width="29.62890625" customWidth="1"/>
     <col min="4" max="4" width="10.3125" customWidth="1"/>
   </cols>
@@ -3098,9 +3157,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>66</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>66</v>
       </c>
@@ -3109,18 +3166,16 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>50</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>53.23</v>
+        <v>53.97</v>
       </c>
       <c r="D4" s="6">
         <v>0.05</v>
@@ -3134,9 +3189,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>56</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>56</v>
       </c>
@@ -3145,16 +3198,14 @@
       </c>
       <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>42</v>
       </c>
@@ -3163,16 +3214,14 @@
       </c>
       <c r="E6" s="7" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>58</v>
       </c>
@@ -3181,7 +3230,7 @@
       </c>
       <c r="E7" s="7" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -3244,7 +3293,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3395,7 +3444,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3421,7 +3470,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
@@ -3437,7 +3486,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6">
         <v>0.05</v>
@@ -3453,7 +3502,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>0.1</v>
@@ -3714,7 +3763,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3865,7 +3914,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3957,10 +4006,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -4019,7 +4068,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -4170,7 +4219,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4309,7 +4358,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
@@ -4320,7 +4369,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4459,7 +4508,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
@@ -4471,7 +4520,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4610,7 +4659,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
@@ -4622,7 +4671,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4773,7 +4822,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4902,6 +4951,32 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -5079,6 +5154,257 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="43.734375" customWidth="1"/>
+    <col min="2" max="2" width="10.734375" customWidth="1"/>
+    <col min="3" max="3" width="10.05078125" customWidth="1"/>
+    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="5" max="5" width="9.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17.82</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.89</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="163" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
@@ -5696,13 +6022,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.734375" customWidth="1"/>
     <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -5731,8 +6058,12 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3">
+        <v>67</v>
+      </c>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
@@ -5745,8 +6076,12 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>25.47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25.31</v>
+      </c>
       <c r="D4" s="6">
         <v>0.05</v>
       </c>
@@ -5759,8 +6094,12 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44</v>
+      </c>
       <c r="D5" s="6">
         <v>0.1</v>
       </c>
@@ -5773,8 +6112,12 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3">
+        <v>51</v>
+      </c>
       <c r="D6" s="6">
         <v>0.1</v>
       </c>
@@ -5787,8 +6130,12 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3">
+        <v>49</v>
+      </c>
       <c r="D7" s="6">
         <v>0.1</v>
       </c>
@@ -5883,13 +6230,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>90</v>
+      </c>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,13 +6246,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>72.53</v>
+      </c>
       <c r="D4" s="6">
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5911,13 +6262,15 @@
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>45</v>
+      </c>
       <c r="D5" s="6">
         <v>0.1</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5925,13 +6278,15 @@
         <v>11</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>33</v>
+      </c>
       <c r="D6" s="6">
         <v>0.1</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,13 +6294,15 @@
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>67</v>
+      </c>
       <c r="D7" s="6">
         <v>0.1</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">

--- a/data/memberOnlineEngagement.xlsx
+++ b/data/memberOnlineEngagement.xlsx
@@ -5299,7 +5299,7 @@
         <v>17.82</v>
       </c>
       <c r="C4" s="3">
-        <v>17.89</v>
+        <v>17.94</v>
       </c>
       <c r="D4" s="6">
         <v>0.05</v>
@@ -6080,7 +6080,7 @@
         <v>25.47</v>
       </c>
       <c r="C4" s="3">
-        <v>25.31</v>
+        <v>25.37</v>
       </c>
       <c r="D4" s="6">
         <v>0.05</v>

--- a/data/memberOnlineEngagement.xlsx
+++ b/data/memberOnlineEngagement.xlsx
@@ -1,70 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC480DA-3132-412E-BCC3-39267BF17D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet28" sheetId="28" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId20"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId21"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId23"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId24"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId25"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId26"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId27"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId28"/>
-    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
-    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
-    <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
+    <sheet sheetId="36" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="8" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="Sheet51" state="visible" r:id="rId6"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId9"/>
+    <sheet sheetId="1" name="Sheet50" state="visible" r:id="rId10"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId11"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId12"/>
+    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId13"/>
+    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId14"/>
+    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId15"/>
+    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId16"/>
+    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId17"/>
+    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId18"/>
+    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId19"/>
+    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId20"/>
+    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId21"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId22"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId23"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId24"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId25"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId26"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId27"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId28"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId29"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId30"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId31"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId32"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId33"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId34"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId35"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId36"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId37"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId38"/>
+    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId39"/>
+    <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
   <si>
-    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
     <t>Master Data</t>
@@ -82,31 +70,34 @@
     <t>Percentage of members with an email address are -</t>
   </si>
   <si>
-    <t>91%</t>
+    <t>Percentage of members with an email address</t>
   </si>
   <si>
     <t xml:space="preserve">Online registered with email is - </t>
   </si>
   <si>
-    <t>541 (45%)</t>
+    <t>Online registration</t>
   </si>
   <si>
     <t>Average age of registered members are -</t>
   </si>
   <si>
-    <t>46</t>
+    <t>Average age of registered members</t>
   </si>
   <si>
     <t>Average Female registered are -</t>
   </si>
   <si>
-    <t>42%</t>
+    <t>Female Registrations</t>
   </si>
   <si>
     <t xml:space="preserve">Average Male registered are - </t>
   </si>
   <si>
-    <t>58%</t>
+    <t>Male Registrations</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
     <t>YOUR M &amp; S PENSION SAVING PLAN</t>
@@ -119,6 +110,24 @@
   </si>
   <si>
     <t>SERCO</t>
+  </si>
+  <si>
+    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>541 (45%)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>58%</t>
   </si>
   <si>
     <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
@@ -140,9 +149,6 @@
   </si>
   <si>
     <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -222,63 +228,45 @@
   <si>
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
-  <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>Percentage of members with an email address</t>
-  </si>
-  <si>
-    <t>Online registration</t>
-  </si>
-  <si>
-    <t>Average age of registered members</t>
-  </si>
-  <si>
-    <t>Female Registrations</t>
-  </si>
-  <si>
-    <t>Male Registrations</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC586C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,15 +286,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -322,12 +301,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -344,6 +319,19 @@
       </top>
       <bottom style="thin">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,60 +400,60 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,1162 +464,1162 @@
       <font>
         <b/>
         <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1909,29 +1897,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="22.15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1946,13 +1934,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -1962,13 +1950,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -1978,13 +1966,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>0.1</v>
@@ -1994,13 +1982,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5">
         <v>0.1</v>
@@ -2010,13 +1998,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>0.1</v>
@@ -2026,73 +2014,73 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="164" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="163" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="161" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2107,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2109,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2123,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2137,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2163,7 +2151,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2177,73 +2165,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2258,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2260,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2274,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2300,7 +2288,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2302,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2328,73 +2316,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2409,14 +2397,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="15">
         <v>0.62</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>0.62</v>
       </c>
       <c r="D3" s="5">
@@ -2427,7 +2415,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2433,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2463,14 +2451,14 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="15">
         <v>0.38</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="15">
         <v>0.38</v>
       </c>
       <c r="D6" s="5">
@@ -2481,14 +2469,14 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="15">
         <v>0.5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="15">
         <v>0.62</v>
       </c>
       <c r="D7" s="5">
@@ -2499,82 +2487,82 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="99" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="56.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2589,7 +2577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +2591,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2617,7 +2605,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2619,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2645,7 +2633,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2659,73 +2647,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2740,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2742,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +2756,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2770,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +2784,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2810,73 +2798,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="87" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2891,7 +2879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2893,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2907,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2933,7 +2921,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2947,7 +2935,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2961,73 +2949,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3042,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3044,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3058,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3084,7 +3072,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3098,7 +3086,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3112,73 +3100,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3193,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3209,9 +3197,9 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -3225,7 +3213,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3241,9 +3229,9 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -3257,9 +3245,9 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -3273,86 +3261,223 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="113" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3367,13 +3492,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -3383,13 +3508,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -3399,13 +3524,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5">
         <v>0.1</v>
@@ -3415,7 +3540,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3554,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3443,74 +3568,74 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3525,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3666,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3682,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3573,7 +3698,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3589,7 +3714,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3605,73 +3730,73 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="158" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="28" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3686,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3825,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3839,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3728,7 +3853,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3742,7 +3867,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3756,223 +3881,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="33.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3987,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +3976,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4015,7 +3990,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4029,7 +4004,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4043,7 +4018,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4057,76 +4032,76 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4141,7 +4116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +4130,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4169,7 +4144,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4183,7 +4158,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4172,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4211,78 +4186,78 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4292,12 +4267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4306,12 +4281,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4320,12 +4295,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>0.1</v>
       </c>
@@ -4334,12 +4309,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5">
         <v>0.1</v>
       </c>
@@ -4348,12 +4323,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="5">
         <v>0.1</v>
       </c>
@@ -4362,72 +4337,72 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4442,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4431,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4470,7 +4445,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4484,7 +4459,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +4473,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4512,73 +4487,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4593,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4582,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4596,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4635,7 +4610,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4649,7 +4624,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4663,73 +4638,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4744,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4733,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4772,7 +4747,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4761,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4800,7 +4775,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4814,78 +4789,78 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="3" width="52.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4895,7 +4870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4909,7 +4884,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +4898,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4937,7 +4912,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +4926,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4965,72 +4940,85 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -5038,14 +5026,14 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.9" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5060,7 +5048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5078,14 +5066,14 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>20.45</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>20.45</v>
       </c>
       <c r="D4" s="5">
@@ -5096,7 +5084,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5114,7 +5102,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5132,7 +5120,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5150,137 +5138,137 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="153" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="152" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="151" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="150" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="148" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -5290,16 +5278,16 @@
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5314,12 +5302,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>43</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -5328,16 +5319,19 @@
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>18.97</v>
+        <v>19.57</v>
+      </c>
+      <c r="C4">
+        <v>19.42</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -5346,15 +5340,18 @@
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" s="5">
@@ -5364,15 +5361,18 @@
         <f t="shared" ref="E5:E7" si="0">IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
         <v>47</v>
       </c>
       <c r="D6" s="5">
@@ -5382,15 +5382,18 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
         <v>53</v>
       </c>
       <c r="D7" s="5">
@@ -5400,8 +5403,8 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>58</v>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5409,66 +5412,66 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5483,7 +5486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5553,73 +5556,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="147" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="146" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="145" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="143" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5634,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5704,72 +5707,72 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="141" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="138" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5784,13 +5787,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -5800,13 +5803,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -5816,13 +5819,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5">
         <v>0.1</v>
@@ -5832,13 +5835,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5">
         <v>0.1</v>
@@ -5848,13 +5851,13 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5">
         <v>0.1</v>
@@ -5864,72 +5867,72 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="133" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5944,7 +5947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6014,73 +6017,73 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="129" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="128" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="127" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6095,11 +6098,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
         <v>66</v>
       </c>
       <c r="D3" s="5">
@@ -6110,12 +6116,15 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>25.59</v>
+        <v>25.57</v>
+      </c>
+      <c r="C4">
+        <v>25.65</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -6125,11 +6134,14 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6140,11 +6152,14 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
         <v>51</v>
       </c>
       <c r="D6" s="5">
@@ -6155,11 +6170,14 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
         <v>49</v>
       </c>
       <c r="D7" s="5">
@@ -6170,71 +6188,71 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
+    <row r="8" ht="15" customHeight="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="121" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6249,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -6265,7 +6283,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -6281,7 +6299,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6297,7 +6315,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6329,46 +6347,46 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="116" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>